--- a/plantillas/SIMANFOR_inventory_template-EN-data_mixed_stands.xlsx
+++ b/plantillas/SIMANFOR_inventory_template-EN-data_mixed_stands.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iuFOR_trabajo\Proyectos\IFN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Repositorios\LINUX\simanfor\inventarios\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35383AF-6939-4AB4-BB49-E120C1E3A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4B80B-2031-4595-A5BD-06A253D0498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Plots" sheetId="2" r:id="rId2"/>
-    <sheet name="Trees" sheetId="3" r:id="rId3"/>
+    <sheet name="Plots" sheetId="2" r:id="rId1"/>
+    <sheet name="Trees" sheetId="3" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Trees!$A$1:$Q$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Trees!$A$1:$Q$49</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -1129,6 +1129,1662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AMC1" s="21"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26">
+        <v>26</v>
+      </c>
+      <c r="E2" s="26">
+        <v>21</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29">
+        <v>43.195527848954818</v>
+      </c>
+      <c r="M2" s="29">
+        <v>38.781575081798373</v>
+      </c>
+      <c r="N2" s="29">
+        <v>36.923076999737141</v>
+      </c>
+      <c r="O2" s="29">
+        <v>35.437100306295221</v>
+      </c>
+      <c r="P2" s="29">
+        <v>34.052640665266779</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>-2.5221721219659972</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>42.918854503510097</v>
+      </c>
+      <c r="AMD2" s="30"/>
+      <c r="AME2" s="30"/>
+      <c r="AMF2" s="30"/>
+      <c r="AMG2" s="30"/>
+      <c r="AMH2" s="30"/>
+      <c r="AMI2" s="30"/>
+      <c r="AMJ2" s="30"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zHfdTz+jCatcqDK13UqTLC4klQvVdqy5NOaL3kpHrPDwpD/RvOGPOjUOoZ5u8/CdxIenKljSjD3LXWCiddDGFQ==" saltValue="7ySoQDvYdIczaeIw+78VqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMA49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="ALS1" s="21"/>
+      <c r="ALT1" s="21"/>
+      <c r="ALU1" s="21"/>
+      <c r="ALV1" s="21"/>
+      <c r="ALW1" s="21"/>
+      <c r="ALX1" s="21"/>
+      <c r="ALY1" s="21"/>
+      <c r="ALZ1" s="21"/>
+      <c r="AMA1" s="21"/>
+    </row>
+    <row r="2" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="22">
+        <v>26</v>
+      </c>
+      <c r="E2" s="31">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H2" s="31">
+        <v>30.5</v>
+      </c>
+      <c r="I2" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="Q2">
+        <v>-2.5220704330024288</v>
+      </c>
+      <c r="R2">
+        <v>42.918854208103063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="22">
+        <v>26</v>
+      </c>
+      <c r="E3" s="31">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H3" s="31">
+        <v>30.85</v>
+      </c>
+      <c r="I3" s="23">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>-2.5220692130891629</v>
+      </c>
+      <c r="R3">
+        <v>42.918855324333393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="22">
+        <v>26</v>
+      </c>
+      <c r="E4" s="31">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H4" s="31">
+        <v>29.65</v>
+      </c>
+      <c r="I4" s="23">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>-2.5220986175782492</v>
+      </c>
+      <c r="R4">
+        <v>42.918855209792603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H5">
+        <v>22.65</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>-2.5220557428194859</v>
+      </c>
+      <c r="R5">
+        <v>42.918855769506862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H6">
+        <v>32.35</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>-2.5219908161721341</v>
+      </c>
+      <c r="R6">
+        <v>42.918856508627911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H7">
+        <v>35.599999999999987</v>
+      </c>
+      <c r="I7">
+        <v>13.5</v>
+      </c>
+      <c r="Q7">
+        <v>-2.522034921924674</v>
+      </c>
+      <c r="R7">
+        <v>42.918856219974153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H8">
+        <v>27.8</v>
+      </c>
+      <c r="I8">
+        <v>12.5</v>
+      </c>
+      <c r="Q8">
+        <v>-2.5220765731679449</v>
+      </c>
+      <c r="R8">
+        <v>42.918855750905252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H9">
+        <v>28.85</v>
+      </c>
+      <c r="I9">
+        <v>12.5</v>
+      </c>
+      <c r="Q9">
+        <v>-2.5220153297394692</v>
+      </c>
+      <c r="R9">
+        <v>42.918856777951888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H10">
+        <v>25.05</v>
+      </c>
+      <c r="I10">
+        <v>11.5</v>
+      </c>
+      <c r="Q10">
+        <v>-2.5219908383688439</v>
+      </c>
+      <c r="R10">
+        <v>42.918857396323247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>-2.5220802562755069</v>
+      </c>
+      <c r="R11">
+        <v>42.918856002818153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H12">
+        <v>28.5</v>
+      </c>
+      <c r="I12">
+        <v>12.5</v>
+      </c>
+      <c r="Q12">
+        <v>-2.522069240898297</v>
+      </c>
+      <c r="R12">
+        <v>42.918856443943511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>127.3239544735163</v>
+      </c>
+      <c r="H13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>-2.5221463934328772</v>
+      </c>
+      <c r="R13">
+        <v>42.918854428777102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H14">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>-2.5220361754918121</v>
+      </c>
+      <c r="R14">
+        <v>42.918857166250532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H15">
+        <v>24.15</v>
+      </c>
+      <c r="I15">
+        <v>12.5</v>
+      </c>
+      <c r="Q15">
+        <v>-2.5221072150535351</v>
+      </c>
+      <c r="R15">
+        <v>42.918855892640522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H16">
+        <v>23.4</v>
+      </c>
+      <c r="I16">
+        <v>12.5</v>
+      </c>
+      <c r="Q16">
+        <v>-2.5220435346606571</v>
+      </c>
+      <c r="R16">
+        <v>42.918857302163637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H17">
+        <v>24.9</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>-2.522011697553356</v>
+      </c>
+      <c r="R17">
+        <v>42.918858082420329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H18">
+        <v>13.3</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>-2.5220790874703418</v>
+      </c>
+      <c r="R18">
+        <v>42.918857322355827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H19">
+        <v>21.15</v>
+      </c>
+      <c r="I19">
+        <v>11.5</v>
+      </c>
+      <c r="Q19">
+        <v>-2.5220509347725999</v>
+      </c>
+      <c r="R19">
+        <v>42.918858219367273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H20">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>-2.522142749998773</v>
+      </c>
+      <c r="R20">
+        <v>42.91885551620652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H21">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I21">
+        <v>11.5</v>
+      </c>
+      <c r="Q21">
+        <v>-2.522137855068491</v>
+      </c>
+      <c r="R21">
+        <v>42.918855691202808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>73</v>
+      </c>
+      <c r="E22">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H22">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="Q22">
+        <v>-2.522130514614187</v>
+      </c>
+      <c r="R22">
+        <v>42.918855983435257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23">
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H23">
+        <v>15.25</v>
+      </c>
+      <c r="I23">
+        <v>11.5</v>
+      </c>
+      <c r="Q23">
+        <v>-2.5221317388432971</v>
+      </c>
+      <c r="R23">
+        <v>42.918855947231727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H24">
+        <v>22.5</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="Q24">
+        <v>-2.5221243403172018</v>
+      </c>
+      <c r="R24">
+        <v>42.918854382045858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H25">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>-2.522131743304906</v>
+      </c>
+      <c r="R25">
+        <v>42.918856013138807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26">
+        <v>73</v>
+      </c>
+      <c r="E26">
+        <v>127.3239544735163</v>
+      </c>
+      <c r="H26">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I26">
+        <v>9.5</v>
+      </c>
+      <c r="Q26">
+        <v>-2.522135416423914</v>
+      </c>
+      <c r="R26">
+        <v>42.918855909183918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H27">
+        <v>15.55</v>
+      </c>
+      <c r="I27">
+        <v>10.5</v>
+      </c>
+      <c r="Q27">
+        <v>-2.5221415344085498</v>
+      </c>
+      <c r="R27">
+        <v>42.918855680452793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28">
+        <v>73</v>
+      </c>
+      <c r="E28">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H28">
+        <v>14.95</v>
+      </c>
+      <c r="I28">
+        <v>10.5</v>
+      </c>
+      <c r="Q28">
+        <v>-2.5221317479656382</v>
+      </c>
+      <c r="R28">
+        <v>42.918856079038449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H29">
+        <v>14.5</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="Q29">
+        <v>-2.522107281439756</v>
+      </c>
+      <c r="R29">
+        <v>42.918857069174038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H30">
+        <v>15.85</v>
+      </c>
+      <c r="I30">
+        <v>10.5</v>
+      </c>
+      <c r="Q30">
+        <v>-2.522063252100863</v>
+      </c>
+      <c r="R30">
+        <v>42.918858989569401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H31">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="Q31">
+        <v>-2.5221488833717931</v>
+      </c>
+      <c r="R31">
+        <v>42.91885550336265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H32">
+        <v>30.25</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>-2.5220192659583529</v>
+      </c>
+      <c r="R32">
+        <v>42.918861441798121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H33">
+        <v>19.25</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="Q33">
+        <v>-2.5220730866717989</v>
+      </c>
+      <c r="R33">
+        <v>42.918859179156897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H34">
+        <v>23.5</v>
+      </c>
+      <c r="I34">
+        <v>11.5</v>
+      </c>
+      <c r="Q34">
+        <v>-2.522092678082184</v>
+      </c>
+      <c r="R34">
+        <v>42.918858572591823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H35">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="I35">
+        <v>12.5</v>
+      </c>
+      <c r="Q35">
+        <v>-2.5221218898613942</v>
+      </c>
+      <c r="R35">
+        <v>42.918854403144877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H36">
+        <v>25.75</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <v>-2.522064585988272</v>
+      </c>
+      <c r="R36">
+        <v>42.918860207439351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H37">
+        <v>24.15</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>-2.5220352752547468</v>
+      </c>
+      <c r="R37">
+        <v>42.918861936768273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H38">
+        <v>32.5</v>
+      </c>
+      <c r="I38">
+        <v>11.5</v>
+      </c>
+      <c r="Q38">
+        <v>-2.5220071910290009</v>
+      </c>
+      <c r="R38">
+        <v>42.918863642690283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H39">
+        <v>27.55</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>-2.5220707752246621</v>
+      </c>
+      <c r="R39">
+        <v>42.918860637197568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H40">
+        <v>22.4</v>
+      </c>
+      <c r="I40">
+        <v>10.5</v>
+      </c>
+      <c r="Q40">
+        <v>-2.5220952008379141</v>
+      </c>
+      <c r="R40">
+        <v>42.918859201058631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H41">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="Q41">
+        <v>-2.5220537025417729</v>
+      </c>
+      <c r="R41">
+        <v>42.918861865081027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H42">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <v>-2.522130616739795</v>
+      </c>
+      <c r="R42">
+        <v>42.918857106449927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>11.5</v>
+      </c>
+      <c r="Q43">
+        <v>-2.5221037915569902</v>
+      </c>
+      <c r="R43">
+        <v>42.918859050980629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H44">
+        <v>26.9</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="Q44">
+        <v>-2.5220159557256099</v>
+      </c>
+      <c r="R44">
+        <v>42.918865039278842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H45">
+        <v>20.75</v>
+      </c>
+      <c r="I45">
+        <v>11</v>
+      </c>
+      <c r="Q45">
+        <v>-2.5220777833001882</v>
+      </c>
+      <c r="R45">
+        <v>42.918854554515157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H46">
+        <v>38.6</v>
+      </c>
+      <c r="I46">
+        <v>13</v>
+      </c>
+      <c r="Q46">
+        <v>-2.5220165262746739</v>
+      </c>
+      <c r="R46">
+        <v>42.918855067286479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H47">
+        <v>22.05</v>
+      </c>
+      <c r="I47">
+        <v>12.5</v>
+      </c>
+      <c r="Q47">
+        <v>-2.522097387655108</v>
+      </c>
+      <c r="R47">
+        <v>42.91885485564471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H48">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="I48">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>-2.5220165286406182</v>
+      </c>
+      <c r="R48">
+        <v>42.918855349454589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H49">
+        <v>23.4</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>-2.5221304678472349</v>
+      </c>
+      <c r="R49">
+        <v>42.918854797989972</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nbkH46ALQA1I2r1SckLzs9q9Yd3HA0yt325Uy9C2Ll9jnwuNjuTPfW/A8hnnh8vgA6x5YHZqEYA51eT/JKN6Cw==" saltValue="TKXS8IP40kjFUDe5Q8L+iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048"/>
   <sheetViews>
@@ -4709,1660 +6365,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AMC1" s="21"/>
-    </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26">
-        <v>26</v>
-      </c>
-      <c r="E2" s="26">
-        <v>21</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29">
-        <v>43.195527848954818</v>
-      </c>
-      <c r="M2" s="29">
-        <v>38.781575081798373</v>
-      </c>
-      <c r="N2" s="29">
-        <v>36.923076999737141</v>
-      </c>
-      <c r="O2" s="29">
-        <v>35.437100306295221</v>
-      </c>
-      <c r="P2" s="29">
-        <v>34.052640665266779</v>
-      </c>
-      <c r="Y2" s="30">
-        <v>-2.5221721219659972</v>
-      </c>
-      <c r="Z2" s="30">
-        <v>42.918854503510097</v>
-      </c>
-      <c r="AMD2" s="30"/>
-      <c r="AME2" s="30"/>
-      <c r="AMF2" s="30"/>
-      <c r="AMG2" s="30"/>
-      <c r="AMH2" s="30"/>
-      <c r="AMI2" s="30"/>
-      <c r="AMJ2" s="30"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zHfdTz+jCatcqDK13UqTLC4klQvVdqy5NOaL3kpHrPDwpD/RvOGPOjUOoZ5u8/CdxIenKljSjD3LXWCiddDGFQ==" saltValue="7ySoQDvYdIczaeIw+78VqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
-  </protectedRanges>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMA49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="ALS1" s="21"/>
-      <c r="ALT1" s="21"/>
-      <c r="ALU1" s="21"/>
-      <c r="ALV1" s="21"/>
-      <c r="ALW1" s="21"/>
-      <c r="ALX1" s="21"/>
-      <c r="ALY1" s="21"/>
-      <c r="ALZ1" s="21"/>
-      <c r="AMA1" s="21"/>
-    </row>
-    <row r="2" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="22">
-        <v>26</v>
-      </c>
-      <c r="E2" s="31">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H2" s="31">
-        <v>30.5</v>
-      </c>
-      <c r="I2" s="23">
-        <v>15.5</v>
-      </c>
-      <c r="Q2">
-        <v>-2.5220704330024288</v>
-      </c>
-      <c r="R2">
-        <v>42.918854208103063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="22">
-        <v>26</v>
-      </c>
-      <c r="E3" s="31">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H3" s="31">
-        <v>30.85</v>
-      </c>
-      <c r="I3" s="23">
-        <v>13</v>
-      </c>
-      <c r="Q3">
-        <v>-2.5220692130891629</v>
-      </c>
-      <c r="R3">
-        <v>42.918855324333393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="22">
-        <v>26</v>
-      </c>
-      <c r="E4" s="31">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H4" s="31">
-        <v>29.65</v>
-      </c>
-      <c r="I4" s="23">
-        <v>13</v>
-      </c>
-      <c r="Q4">
-        <v>-2.5220986175782492</v>
-      </c>
-      <c r="R4">
-        <v>42.918855209792603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H5">
-        <v>22.65</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="Q5">
-        <v>-2.5220557428194859</v>
-      </c>
-      <c r="R5">
-        <v>42.918855769506862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H6">
-        <v>32.35</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="Q6">
-        <v>-2.5219908161721341</v>
-      </c>
-      <c r="R6">
-        <v>42.918856508627911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H7">
-        <v>35.599999999999987</v>
-      </c>
-      <c r="I7">
-        <v>13.5</v>
-      </c>
-      <c r="Q7">
-        <v>-2.522034921924674</v>
-      </c>
-      <c r="R7">
-        <v>42.918856219974153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H8">
-        <v>27.8</v>
-      </c>
-      <c r="I8">
-        <v>12.5</v>
-      </c>
-      <c r="Q8">
-        <v>-2.5220765731679449</v>
-      </c>
-      <c r="R8">
-        <v>42.918855750905252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H9">
-        <v>28.85</v>
-      </c>
-      <c r="I9">
-        <v>12.5</v>
-      </c>
-      <c r="Q9">
-        <v>-2.5220153297394692</v>
-      </c>
-      <c r="R9">
-        <v>42.918856777951888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H10">
-        <v>25.05</v>
-      </c>
-      <c r="I10">
-        <v>11.5</v>
-      </c>
-      <c r="Q10">
-        <v>-2.5219908383688439</v>
-      </c>
-      <c r="R10">
-        <v>42.918857396323247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H11">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="Q11">
-        <v>-2.5220802562755069</v>
-      </c>
-      <c r="R11">
-        <v>42.918856002818153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H12">
-        <v>28.5</v>
-      </c>
-      <c r="I12">
-        <v>12.5</v>
-      </c>
-      <c r="Q12">
-        <v>-2.522069240898297</v>
-      </c>
-      <c r="R12">
-        <v>42.918856443943511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13">
-        <v>41</v>
-      </c>
-      <c r="E13">
-        <v>127.3239544735163</v>
-      </c>
-      <c r="H13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="Q13">
-        <v>-2.5221463934328772</v>
-      </c>
-      <c r="R13">
-        <v>42.918854428777102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H14">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <v>-2.5220361754918121</v>
-      </c>
-      <c r="R14">
-        <v>42.918857166250532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H15">
-        <v>24.15</v>
-      </c>
-      <c r="I15">
-        <v>12.5</v>
-      </c>
-      <c r="Q15">
-        <v>-2.5221072150535351</v>
-      </c>
-      <c r="R15">
-        <v>42.918855892640522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H16">
-        <v>23.4</v>
-      </c>
-      <c r="I16">
-        <v>12.5</v>
-      </c>
-      <c r="Q16">
-        <v>-2.5220435346606571</v>
-      </c>
-      <c r="R16">
-        <v>42.918857302163637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H17">
-        <v>24.9</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
-      <c r="Q17">
-        <v>-2.522011697553356</v>
-      </c>
-      <c r="R17">
-        <v>42.918858082420329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H18">
-        <v>13.3</v>
-      </c>
-      <c r="I18">
-        <v>11</v>
-      </c>
-      <c r="Q18">
-        <v>-2.5220790874703418</v>
-      </c>
-      <c r="R18">
-        <v>42.918857322355827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H19">
-        <v>21.15</v>
-      </c>
-      <c r="I19">
-        <v>11.5</v>
-      </c>
-      <c r="Q19">
-        <v>-2.5220509347725999</v>
-      </c>
-      <c r="R19">
-        <v>42.918858219367273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20">
-        <v>73</v>
-      </c>
-      <c r="E20">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H20">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="I20">
-        <v>11</v>
-      </c>
-      <c r="Q20">
-        <v>-2.522142749998773</v>
-      </c>
-      <c r="R20">
-        <v>42.91885551620652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21">
-        <v>73</v>
-      </c>
-      <c r="E21">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H21">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="I21">
-        <v>11.5</v>
-      </c>
-      <c r="Q21">
-        <v>-2.522137855068491</v>
-      </c>
-      <c r="R21">
-        <v>42.918855691202808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22">
-        <v>73</v>
-      </c>
-      <c r="E22">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I22">
-        <v>11</v>
-      </c>
-      <c r="Q22">
-        <v>-2.522130514614187</v>
-      </c>
-      <c r="R22">
-        <v>42.918855983435257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23">
-        <v>73</v>
-      </c>
-      <c r="E23">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H23">
-        <v>15.25</v>
-      </c>
-      <c r="I23">
-        <v>11.5</v>
-      </c>
-      <c r="Q23">
-        <v>-2.5221317388432971</v>
-      </c>
-      <c r="R23">
-        <v>42.918855947231727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H24">
-        <v>22.5</v>
-      </c>
-      <c r="I24">
-        <v>13</v>
-      </c>
-      <c r="Q24">
-        <v>-2.5221243403172018</v>
-      </c>
-      <c r="R24">
-        <v>42.918854382045858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25">
-        <v>73</v>
-      </c>
-      <c r="E25">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H25">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="I25">
-        <v>12</v>
-      </c>
-      <c r="Q25">
-        <v>-2.522131743304906</v>
-      </c>
-      <c r="R25">
-        <v>42.918856013138807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26">
-        <v>73</v>
-      </c>
-      <c r="E26">
-        <v>127.3239544735163</v>
-      </c>
-      <c r="H26">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="I26">
-        <v>9.5</v>
-      </c>
-      <c r="Q26">
-        <v>-2.522135416423914</v>
-      </c>
-      <c r="R26">
-        <v>42.918855909183918</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27">
-        <v>73</v>
-      </c>
-      <c r="E27">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H27">
-        <v>15.55</v>
-      </c>
-      <c r="I27">
-        <v>10.5</v>
-      </c>
-      <c r="Q27">
-        <v>-2.5221415344085498</v>
-      </c>
-      <c r="R27">
-        <v>42.918855680452793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28">
-        <v>73</v>
-      </c>
-      <c r="E28">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H28">
-        <v>14.95</v>
-      </c>
-      <c r="I28">
-        <v>10.5</v>
-      </c>
-      <c r="Q28">
-        <v>-2.5221317479656382</v>
-      </c>
-      <c r="R28">
-        <v>42.918856079038449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29">
-        <v>41</v>
-      </c>
-      <c r="E29">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H29">
-        <v>14.5</v>
-      </c>
-      <c r="I29">
-        <v>12</v>
-      </c>
-      <c r="Q29">
-        <v>-2.522107281439756</v>
-      </c>
-      <c r="R29">
-        <v>42.918857069174038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30">
-        <v>41</v>
-      </c>
-      <c r="E30">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H30">
-        <v>15.85</v>
-      </c>
-      <c r="I30">
-        <v>10.5</v>
-      </c>
-      <c r="Q30">
-        <v>-2.522063252100863</v>
-      </c>
-      <c r="R30">
-        <v>42.918858989569401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31">
-        <v>73</v>
-      </c>
-      <c r="E31">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H31">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="I31">
-        <v>11</v>
-      </c>
-      <c r="Q31">
-        <v>-2.5221488833717931</v>
-      </c>
-      <c r="R31">
-        <v>42.91885550336265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H32">
-        <v>30.25</v>
-      </c>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="Q32">
-        <v>-2.5220192659583529</v>
-      </c>
-      <c r="R32">
-        <v>42.918861441798121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H33">
-        <v>19.25</v>
-      </c>
-      <c r="I33">
-        <v>11</v>
-      </c>
-      <c r="Q33">
-        <v>-2.5220730866717989</v>
-      </c>
-      <c r="R33">
-        <v>42.918859179156897</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34">
-        <v>21</v>
-      </c>
-      <c r="E34">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H34">
-        <v>23.5</v>
-      </c>
-      <c r="I34">
-        <v>11.5</v>
-      </c>
-      <c r="Q34">
-        <v>-2.522092678082184</v>
-      </c>
-      <c r="R34">
-        <v>42.918858572591823</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H35">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="I35">
-        <v>12.5</v>
-      </c>
-      <c r="Q35">
-        <v>-2.5221218898613942</v>
-      </c>
-      <c r="R35">
-        <v>42.918854403144877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36">
-        <v>21</v>
-      </c>
-      <c r="E36">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H36">
-        <v>25.75</v>
-      </c>
-      <c r="I36">
-        <v>12</v>
-      </c>
-      <c r="Q36">
-        <v>-2.522064585988272</v>
-      </c>
-      <c r="R36">
-        <v>42.918860207439351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37">
-        <v>21</v>
-      </c>
-      <c r="E37">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H37">
-        <v>24.15</v>
-      </c>
-      <c r="I37">
-        <v>12</v>
-      </c>
-      <c r="Q37">
-        <v>-2.5220352752547468</v>
-      </c>
-      <c r="R37">
-        <v>42.918861936768273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38">
-        <v>21</v>
-      </c>
-      <c r="E38">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H38">
-        <v>32.5</v>
-      </c>
-      <c r="I38">
-        <v>11.5</v>
-      </c>
-      <c r="Q38">
-        <v>-2.5220071910290009</v>
-      </c>
-      <c r="R38">
-        <v>42.918863642690283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39">
-        <v>21</v>
-      </c>
-      <c r="E39">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H39">
-        <v>27.55</v>
-      </c>
-      <c r="I39">
-        <v>12</v>
-      </c>
-      <c r="Q39">
-        <v>-2.5220707752246621</v>
-      </c>
-      <c r="R39">
-        <v>42.918860637197568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H40">
-        <v>22.4</v>
-      </c>
-      <c r="I40">
-        <v>10.5</v>
-      </c>
-      <c r="Q40">
-        <v>-2.5220952008379141</v>
-      </c>
-      <c r="R40">
-        <v>42.918859201058631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41">
-        <v>26</v>
-      </c>
-      <c r="E41">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H41">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="I41">
-        <v>12</v>
-      </c>
-      <c r="Q41">
-        <v>-2.5220537025417729</v>
-      </c>
-      <c r="R41">
-        <v>42.918861865081027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42">
-        <v>21</v>
-      </c>
-      <c r="E42">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H42">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="I42">
-        <v>11</v>
-      </c>
-      <c r="Q42">
-        <v>-2.522130616739795</v>
-      </c>
-      <c r="R42">
-        <v>42.918857106449927</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43">
-        <v>21</v>
-      </c>
-      <c r="E43">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H43">
-        <v>23</v>
-      </c>
-      <c r="I43">
-        <v>11.5</v>
-      </c>
-      <c r="Q43">
-        <v>-2.5221037915569902</v>
-      </c>
-      <c r="R43">
-        <v>42.918859050980629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44">
-        <v>26</v>
-      </c>
-      <c r="E44">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H44">
-        <v>26.9</v>
-      </c>
-      <c r="I44">
-        <v>12</v>
-      </c>
-      <c r="Q44">
-        <v>-2.5220159557256099</v>
-      </c>
-      <c r="R44">
-        <v>42.918865039278842</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45">
-        <v>26</v>
-      </c>
-      <c r="E45">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H45">
-        <v>20.75</v>
-      </c>
-      <c r="I45">
-        <v>11</v>
-      </c>
-      <c r="Q45">
-        <v>-2.5220777833001882</v>
-      </c>
-      <c r="R45">
-        <v>42.918854554515157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46">
-        <v>26</v>
-      </c>
-      <c r="E46">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H46">
-        <v>38.6</v>
-      </c>
-      <c r="I46">
-        <v>13</v>
-      </c>
-      <c r="Q46">
-        <v>-2.5220165262746739</v>
-      </c>
-      <c r="R46">
-        <v>42.918855067286479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47">
-        <v>26</v>
-      </c>
-      <c r="E47">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H47">
-        <v>22.05</v>
-      </c>
-      <c r="I47">
-        <v>12.5</v>
-      </c>
-      <c r="Q47">
-        <v>-2.522097387655108</v>
-      </c>
-      <c r="R47">
-        <v>42.91885485564471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48">
-        <v>26</v>
-      </c>
-      <c r="E48">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H48">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="I48">
-        <v>13</v>
-      </c>
-      <c r="Q48">
-        <v>-2.5220165286406182</v>
-      </c>
-      <c r="R48">
-        <v>42.918855349454589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49">
-        <v>21</v>
-      </c>
-      <c r="E49">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H49">
-        <v>23.4</v>
-      </c>
-      <c r="I49">
-        <v>12</v>
-      </c>
-      <c r="Q49">
-        <v>-2.5221304678472349</v>
-      </c>
-      <c r="R49">
-        <v>42.918854797989972</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nbkH46ALQA1I2r1SckLzs9q9Yd3HA0yt325Uy9C2Ll9jnwuNjuTPfW/A8hnnh8vgA6x5YHZqEYA51eT/JKN6Cw==" saltValue="TKXS8IP40kjFUDe5Q8L+iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
-  </protectedRanges>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>